--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44973</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44995</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>45119</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43365</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43385</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43472</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43472</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43539</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43539</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43559</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43563</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43564</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43566</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43581</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43584</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43584</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43605</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43682</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43682</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43705</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43711</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43717</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43720</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43720</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43721</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43724</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43724</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43728</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43728</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43752</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43752</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43775</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43803</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43842</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43879</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>43896</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>43896</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43896</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43899</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43910</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43919</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43927</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43973</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43985</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43997</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44005</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44006</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44032</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44060</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44061</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44084</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44091</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44092</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44096</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>44096</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>44103</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>44105</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44109</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44109</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44119</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44119</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44136</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44139</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44147</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44159</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44160</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44182</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44187</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44200</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44207</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44235</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44239</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44239</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44245</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44245</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44246</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44246</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44246</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44251</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44261</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44264</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44280</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44280</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44285</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44285</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44287</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44287</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44307</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44312</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44322</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44322</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44322</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44328</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44342</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>44391</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44397</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44412</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44414</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>44414</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>44419</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>44423</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44423</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>44425</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>44425</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44426</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44426</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44427</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>44431</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44431</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>44438</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>44442</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>44442</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>44452</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44455</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44461</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44467</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44473</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44475</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44484</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44484</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44485</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44491</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44491</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>44497</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>44524</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>44529</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>44529</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>44532</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>44537</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44539</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44543</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44546</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44546</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44546</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44551</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44551</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44573</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44578</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44579</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44581</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44584</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44587</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44587</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44589</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44589</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44589</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44594</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44594</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44595</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44599</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44599</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44603</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44606</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44635</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>44650</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44657</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44659</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44678</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>44678</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>44691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44701</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44713</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44726</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44755</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44763</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44773</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44776</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44776</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44781</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44781</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44781</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44784</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44795</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44803</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44803</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44819</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44820</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44830</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44830</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44830</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44831</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44831</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44831</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44833</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44833</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44839</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44839</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44839</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>44841</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>44852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>44853</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>44853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44865</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>44873</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>44893</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>44901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44915</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44917</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44918</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44918</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44918</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44922</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44922</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44927</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44930</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44945</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44946</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44956</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44958</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44964</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44970</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44972</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44972</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44972</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44973</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44973</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>45000</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45002</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>45005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>45008</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45034</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45036</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45044</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45048</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45062</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45068</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>45077</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>45078</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>45089</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45099</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>45103</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>45104</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>45133</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>45139</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>45140</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45152</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45163</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44973</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44995</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>45119</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43365</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43385</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43472</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43472</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43539</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43539</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43559</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43563</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43564</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43566</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43581</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43584</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43584</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43605</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43682</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43682</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43705</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43711</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43717</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43720</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43720</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43721</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43724</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43724</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43728</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43728</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43752</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43752</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43775</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43803</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43842</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43879</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>43896</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>43896</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43896</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43899</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43910</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43919</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43927</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43973</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43985</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43997</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44005</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44006</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44032</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44060</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44061</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44084</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44091</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44092</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44096</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>44096</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>44103</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>44105</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44109</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44109</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44119</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44119</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44136</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44139</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44147</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44159</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44160</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44182</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44187</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44200</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44207</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44235</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44239</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44239</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44245</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44245</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44246</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44246</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44246</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44251</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44261</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44264</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44280</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44280</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44285</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44285</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44287</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44287</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44307</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44312</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44322</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44322</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44322</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44328</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44342</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>44391</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44397</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44412</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44414</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>44414</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>44419</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>44423</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44423</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>44425</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>44425</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44426</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44426</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44427</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>44431</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44431</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>44438</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>44442</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>44442</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>44452</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44455</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44461</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44467</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44473</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44475</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44484</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44484</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44485</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44491</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44491</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>44497</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>44524</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>44529</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>44529</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>44532</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>44537</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44539</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44543</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44546</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44546</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44546</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44551</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44551</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44573</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44578</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44579</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44581</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44584</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44587</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44587</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44589</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44589</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44589</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44594</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44594</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44595</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44599</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44599</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44603</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44606</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44635</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>44650</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44657</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44659</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44678</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>44678</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>44691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44701</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44713</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44726</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44755</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44763</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44773</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44776</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44776</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44781</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44781</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44781</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44784</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44795</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44803</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44803</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44819</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44820</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44830</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44830</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44830</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44831</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44831</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44831</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44833</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44833</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44839</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44839</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44839</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>44841</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>44852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>44853</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>44853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44865</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>44873</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>44893</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>44901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44915</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44917</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44918</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44918</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44918</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44922</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44922</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44927</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44930</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44945</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44946</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44956</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44958</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44964</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44970</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44972</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44972</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44972</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44973</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44973</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>45000</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45002</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>45005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>45008</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45034</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45036</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45044</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45048</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45062</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45068</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>45077</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>45078</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>45089</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45099</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>45103</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>45104</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>45133</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>45139</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>45140</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45152</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45163</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44973</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44995</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>45119</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43365</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43385</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43472</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43472</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43539</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43539</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43559</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43563</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43564</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43566</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43581</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43584</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43584</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43605</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43682</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43682</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43705</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43711</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43717</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43720</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43720</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43721</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43724</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43724</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43728</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43728</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43752</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43752</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43775</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43803</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43842</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43879</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>43896</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>43896</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43896</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43899</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43910</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43919</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43927</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43973</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43985</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43997</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44005</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44006</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44032</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44060</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44061</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44084</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44091</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44092</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44096</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>44096</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>44103</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>44105</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44109</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44109</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44119</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44119</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44136</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44139</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44147</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44159</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44160</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44182</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44187</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44200</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44207</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44235</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44239</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44239</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44245</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44245</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44246</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44246</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44246</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44251</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44261</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44264</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44280</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44280</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44285</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44285</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44287</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44287</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44307</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44312</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44322</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44322</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44322</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44328</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44342</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>44391</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44397</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44412</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44414</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>44414</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>44419</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>44423</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44423</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>44425</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>44425</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44426</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44426</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44427</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>44431</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44431</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>44438</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>44442</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>44442</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>44452</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44455</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44461</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44467</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44473</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44475</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44484</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44484</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44485</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44491</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44491</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>44497</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>44524</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>44529</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>44529</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>44532</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>44537</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44539</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44543</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44546</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44546</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44546</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44551</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44551</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44573</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44578</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44579</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44581</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44584</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44587</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44587</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44589</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44589</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44589</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44594</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44594</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44595</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44599</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44599</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44603</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44606</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44635</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>44650</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44657</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44659</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44678</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>44678</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>44691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44701</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44713</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44726</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44755</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44763</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44773</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44776</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44776</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44781</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44781</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44781</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44784</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44795</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44803</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44803</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44819</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44820</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44830</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44830</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44830</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44831</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44831</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44831</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44833</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44833</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44839</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44839</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44839</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>44841</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>44852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>44853</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>44853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44865</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>44873</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>44893</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>44901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44915</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44917</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44918</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44918</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44918</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44922</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44922</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44927</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44930</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44945</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44946</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44956</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44958</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44964</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44970</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44972</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44972</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44972</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44973</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44973</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>45000</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45002</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>45005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>45008</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45034</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45036</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45044</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45048</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45062</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45068</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>45077</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>45078</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>45089</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45099</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>45103</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>45104</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>45133</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>45139</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>45140</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45152</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45163</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44973</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44995</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>45119</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43365</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43385</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43472</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43472</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43539</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43539</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43559</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43563</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43564</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43566</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43581</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43584</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43584</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43605</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43682</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43682</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43705</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43711</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43717</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43720</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43720</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43721</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43724</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43724</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43728</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43728</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43752</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43752</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43775</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43803</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43842</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43879</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>43896</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>43896</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43896</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43899</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43910</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43919</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43927</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43973</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43985</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43997</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44005</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44006</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44032</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44060</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44061</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44084</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44091</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44092</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44096</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>44096</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>44103</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>44105</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44109</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44109</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44119</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44119</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44136</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44139</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44147</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44159</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44160</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44182</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44187</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44200</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44207</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44235</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44239</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44239</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44245</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44245</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44246</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44246</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44246</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44251</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44261</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44264</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44280</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44280</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44285</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44285</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44287</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44287</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44307</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44312</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44322</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44322</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44322</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44328</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44342</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>44391</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44397</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44412</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44414</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>44414</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>44419</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>44423</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44423</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>44425</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>44425</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44426</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44426</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44427</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>44431</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44431</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>44438</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>44442</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>44442</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>44452</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44455</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44461</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44467</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44473</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44475</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44484</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44484</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44485</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44491</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44491</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>44497</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>44524</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>44529</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>44529</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>44532</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>44537</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44539</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44543</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44546</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44546</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44546</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44551</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44551</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44573</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44578</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44579</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44581</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44584</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44587</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44587</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44589</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44589</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44589</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44594</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44594</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44595</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44599</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44599</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44603</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44606</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44635</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>44650</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44657</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44659</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44678</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>44678</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>44691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44701</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44713</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44726</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44755</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44763</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44773</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44776</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44776</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44781</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44781</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44781</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44784</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44795</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44803</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44803</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44819</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44820</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44830</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44830</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44830</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44831</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44831</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44831</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44833</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44833</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44839</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44839</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44839</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>44841</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>44852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>44853</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>44853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44865</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>44873</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>44893</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>44901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44915</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44917</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44918</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44918</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44918</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44922</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44922</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44927</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44930</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44945</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44946</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44956</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44958</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44964</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44970</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44972</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44972</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44972</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44973</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44973</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>45000</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45002</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>45005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>45008</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45034</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45036</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45044</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45048</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45062</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45068</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>45077</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>45078</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>45089</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45099</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>45103</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>45104</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>45133</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>45139</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>45140</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45152</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45163</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44973</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44995</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>45119</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43365</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43385</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43472</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43472</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43539</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43539</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43559</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43563</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43564</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43566</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43581</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43584</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43584</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43605</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43682</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43682</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43705</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43711</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43717</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43720</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43720</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43721</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43724</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43724</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43728</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43728</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43752</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43752</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43775</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43803</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43842</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43879</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>43896</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>43896</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43896</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43899</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43910</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43919</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43927</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43973</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43985</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43997</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44005</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44006</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44032</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44060</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44061</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44084</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44091</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44092</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44096</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>44096</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>44103</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>44105</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44109</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44109</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44119</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44119</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44136</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44139</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44147</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44159</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44160</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44182</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44187</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44200</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44207</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44235</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44239</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44239</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44245</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44245</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44246</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44246</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44246</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44251</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44261</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44264</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44280</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44280</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44285</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44285</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44287</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44287</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44307</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44312</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44322</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44322</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44322</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44328</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44342</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>44391</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44397</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44412</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44414</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>44414</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>44419</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>44423</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44423</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>44425</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>44425</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44426</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44426</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44427</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>44431</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44431</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>44438</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>44442</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>44442</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>44452</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44455</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44461</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44467</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44473</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44475</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44484</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44484</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44485</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44491</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44491</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>44497</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>44524</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>44529</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>44529</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>44532</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>44537</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44539</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44543</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44546</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44546</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44546</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44551</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44551</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44573</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44578</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44579</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44581</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44584</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44587</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44587</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44589</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44589</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44589</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44594</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44594</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44595</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44599</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44599</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44603</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44606</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44635</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>44650</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44657</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44659</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44678</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>44678</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>44691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44701</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44713</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44726</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44755</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44763</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44773</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44776</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44776</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44781</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44781</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44781</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44784</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44795</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44803</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44803</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44819</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44820</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44830</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44830</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44830</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44831</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44831</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44831</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44833</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44833</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44839</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44839</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44839</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>44841</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>44852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>44853</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>44853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44865</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>44873</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>44893</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>44901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44915</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44917</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44918</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44918</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44918</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44922</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44922</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44927</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44930</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44945</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44946</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44956</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44958</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44964</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44970</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44972</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44972</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44972</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44973</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44973</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>45000</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45002</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>45005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>45008</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45034</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45036</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45044</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45048</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45062</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45068</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>45077</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>45078</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>45089</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45099</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>45103</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>45104</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>45133</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>45139</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>45140</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45152</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45163</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44973</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44995</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>45119</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43365</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43385</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43472</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43472</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43539</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43539</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43559</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43563</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43564</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43566</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43581</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43584</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43584</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43605</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43682</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43682</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43705</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43711</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43717</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43720</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43720</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43721</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43724</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43724</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43728</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43728</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43752</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43752</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43775</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43803</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43842</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43879</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>43896</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>43896</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43896</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43899</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43910</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43919</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43927</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43973</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43985</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43997</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44005</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44006</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44032</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44060</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44061</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44084</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44091</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44092</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44096</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>44096</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>44103</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>44105</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44109</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44109</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44119</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44119</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44136</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44139</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44147</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44159</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44160</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44182</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44187</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44200</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44207</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44235</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44239</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44239</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44245</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44245</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44246</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44246</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44246</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44251</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44261</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44264</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44280</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44280</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44285</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44285</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44287</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44287</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44307</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44312</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44322</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44322</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44322</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44328</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44342</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>44391</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44397</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44412</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44414</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>44414</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>44419</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>44423</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44423</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>44425</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>44425</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44426</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44426</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44427</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>44431</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44431</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>44438</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>44442</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>44442</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>44452</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44455</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44461</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44467</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44473</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44475</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44484</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44484</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44485</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44491</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44491</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>44497</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>44524</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>44529</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>44529</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>44532</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>44537</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44539</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44543</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44546</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44546</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44546</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44551</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44551</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44573</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44578</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44579</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44581</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44584</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44587</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44587</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44589</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44589</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44589</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44594</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44594</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44595</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44599</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44599</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44603</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44606</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44635</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>44650</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44657</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44659</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44678</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>44678</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>44691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44701</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44713</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44726</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44755</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44763</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44773</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44776</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44776</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44781</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44781</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44781</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44784</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44795</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44803</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44803</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44819</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44820</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44830</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44830</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44830</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44831</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44831</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44831</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44833</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44833</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44839</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44839</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44839</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>44841</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>44852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>44853</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>44853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44865</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>44873</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>44893</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>44901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44915</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44917</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44918</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44918</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44918</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44922</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44922</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44927</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44930</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44945</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44946</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44956</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44958</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44964</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44970</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44972</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44972</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44972</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44973</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44973</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>45000</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45002</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>45005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>45008</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45034</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45036</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45044</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45048</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45062</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45068</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>45077</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>45078</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>45089</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45099</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>45103</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>45104</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>45133</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>45139</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>45140</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45152</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45163</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44973</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44995</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>45119</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43365</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43385</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43472</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43472</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43539</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43539</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43559</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43563</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43564</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43566</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43581</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43584</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43584</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43605</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43682</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43682</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43705</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43711</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43717</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43720</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43720</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43721</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43724</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43724</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43728</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43728</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43752</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43752</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43775</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43803</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43842</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43879</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>43896</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>43896</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43896</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43899</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43910</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43919</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43927</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43973</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43985</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43997</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44005</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44006</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44032</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44060</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44061</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44084</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44091</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44092</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44096</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>44096</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>44103</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>44105</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44109</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44109</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44119</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44119</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44136</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44139</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44147</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44159</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44160</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44182</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44187</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44200</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44207</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44235</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44239</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44239</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44245</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44245</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44246</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44246</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44246</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44251</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44261</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44264</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44280</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44280</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44285</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44285</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44287</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44287</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44307</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44312</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44322</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44322</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44322</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44328</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44342</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>44391</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44397</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44412</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44414</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>44414</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>44419</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>44423</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44423</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>44425</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>44425</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44426</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44426</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44427</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>44431</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44431</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>44438</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>44442</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>44442</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>44452</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44455</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44461</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44467</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44473</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44475</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44484</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44484</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44485</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44491</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44491</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>44497</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>44524</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>44529</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>44529</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>44532</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>44537</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44539</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44543</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44546</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44546</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44546</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44551</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44551</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44573</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44578</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44579</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44581</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44584</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44587</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44587</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44589</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44589</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44589</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44594</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44594</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44595</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44599</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44599</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44603</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44606</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44635</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>44650</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44657</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44659</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44678</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>44678</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>44691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44701</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44713</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44726</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44755</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44763</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44773</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44776</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44776</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44781</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44781</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44781</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44784</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44795</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44803</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44803</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44819</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44820</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44830</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44830</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44830</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44831</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44831</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44831</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44833</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44833</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44839</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44839</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44839</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>44841</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>44852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>44853</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>44853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44865</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>44873</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>44893</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>44901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44915</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44917</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44918</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44918</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44918</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44922</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44922</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44927</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44930</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44945</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44946</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44956</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44958</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44964</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44970</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44972</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44972</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44972</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44973</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44973</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>45000</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45002</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>45005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>45008</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45034</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45036</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45044</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45048</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45062</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45068</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>45077</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>45078</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>45089</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45099</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>45103</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>45104</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>45133</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>45139</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>45140</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45152</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45163</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44973</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44995</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>45119</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43365</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43385</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43438</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43438</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43472</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43472</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43539</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43539</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43559</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43563</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43564</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43566</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43581</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43584</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43584</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43605</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>43679</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>43682</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43682</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43705</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43711</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43717</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43720</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43720</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43721</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43724</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43724</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43728</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43728</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43734</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43752</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43752</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43775</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43803</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43842</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43879</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>43896</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>43896</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43896</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43899</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43910</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43919</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43927</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43945</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43973</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43985</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43997</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44005</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44006</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44032</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44060</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44061</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44084</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44091</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44092</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44095</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44096</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>44096</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>44103</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>44105</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44109</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44109</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44119</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44119</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44136</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44139</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44147</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44159</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44160</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44182</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44187</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44200</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44207</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44235</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44239</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44239</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44245</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44245</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44246</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44246</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44246</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44251</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44261</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44264</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44265</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44280</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44280</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44285</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44285</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44287</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44287</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44292</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44307</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44312</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44322</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44322</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44322</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44328</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44342</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>44391</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44397</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44412</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44414</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>44414</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>44419</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>44423</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44423</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>44425</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>44425</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>44426</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>44426</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>44427</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>44431</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44431</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>44438</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>44442</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>44442</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>44452</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44455</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44461</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44467</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44473</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44475</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44484</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44484</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44485</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44491</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44491</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>44497</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>44524</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>44529</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>44529</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>44532</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>44537</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44539</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44543</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44546</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44546</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44546</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44551</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44551</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44571</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44573</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44578</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44579</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44581</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44584</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44587</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44587</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44589</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44589</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44589</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44594</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44594</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44595</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44599</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44599</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44603</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44606</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44635</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>44650</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44657</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44659</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44678</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>44678</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>44691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44701</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44713</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44726</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44755</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44763</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44773</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44776</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44776</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44781</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44781</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44781</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44784</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44795</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44803</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44803</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44819</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44820</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44830</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44830</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44830</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44831</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44831</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44831</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44833</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44833</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44839</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44839</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44839</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>44841</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>44852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>44853</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>44853</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44865</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>44873</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>44893</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>44901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44909</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44915</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44917</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44918</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44918</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44918</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44922</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44922</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44927</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44930</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44945</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44946</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44956</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44958</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44964</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44970</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44972</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44972</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44972</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44973</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44973</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44994</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>45000</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45002</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>45005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>45008</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45034</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45036</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45044</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45048</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45062</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45068</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>45077</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>45078</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>45089</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45099</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>45103</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>45104</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>45133</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>45139</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>45140</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45152</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45163</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>45169</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -638,27 +638,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 15285-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 15285-2022.xlsx", "A 15285-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 15285-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 15285-2022.png", "A 15285-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 15285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 15285-2022.docx", "A 15285-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 15285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 15285-2022.docx", "A 15285-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 15285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 15285-2022.docx", "A 15285-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 15285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 15285-2022.docx", "A 15285-2022")</f>
         <v/>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -737,27 +737,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 15106-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 15106-2020.xlsx", "A 15106-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 15106-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 15106-2020.png", "A 15106-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 15106-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 15106-2020.docx", "A 15106-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 15106-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 15106-2020.docx", "A 15106-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 15106-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 15106-2020.docx", "A 15106-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 15106-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 15106-2020.docx", "A 15106-2020")</f>
         <v/>
       </c>
     </row>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,27 +828,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 52854-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 52854-2021.xlsx", "A 52854-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 52854-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 52854-2021.png", "A 52854-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 52854-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 52854-2021.docx", "A 52854-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 52854-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 52854-2021.docx", "A 52854-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 52854-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 52854-2021.docx", "A 52854-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 52854-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 52854-2021.docx", "A 52854-2021")</f>
         <v/>
       </c>
     </row>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,27 +919,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 68341-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 68341-2021.xlsx", "A 68341-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 68341-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 68341-2021.png", "A 68341-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 68341-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 68341-2021.docx", "A 68341-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 68341-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 68341-2021.docx", "A 68341-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 68341-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 68341-2021.docx", "A 68341-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 68341-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 68341-2021.docx", "A 68341-2021")</f>
         <v/>
       </c>
     </row>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,31 +1009,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 17148-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 17148-2019.xlsx", "A 17148-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 17148-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 17148-2019.png", "A 17148-2019")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/knärot/A 17148-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/knärot/A 17148-2019.png", "A 17148-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 17148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 17148-2019.docx", "A 17148-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 17148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 17148-2019.docx", "A 17148-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 17148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 17148-2019.docx", "A 17148-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 17148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 17148-2019.docx", "A 17148-2019")</f>
         <v/>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,27 +1103,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 13835-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 13835-2020.xlsx", "A 13835-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 13835-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 13835-2020.png", "A 13835-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 13835-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 13835-2020.docx", "A 13835-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 13835-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 13835-2020.docx", "A 13835-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 13835-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 13835-2020.docx", "A 13835-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 13835-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 13835-2020.docx", "A 13835-2020")</f>
         <v/>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,27 +1193,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 20728-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 20728-2020.xlsx", "A 20728-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 20728-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 20728-2020.png", "A 20728-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 20728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 20728-2020.docx", "A 20728-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 20728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 20728-2020.docx", "A 20728-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 20728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 20728-2020.docx", "A 20728-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 20728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 20728-2020.docx", "A 20728-2020")</f>
         <v/>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,27 +1281,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 56342-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 56342-2018.xlsx", "A 56342-2018")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 56342-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 56342-2018.png", "A 56342-2018")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 56342-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 56342-2018.docx", "A 56342-2018")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 56342-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 56342-2018.docx", "A 56342-2018")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 56342-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 56342-2018.docx", "A 56342-2018")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 56342-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 56342-2018.docx", "A 56342-2018")</f>
         <v/>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,27 +1369,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 69355-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 69355-2020.xlsx", "A 69355-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 69355-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 69355-2020.png", "A 69355-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 69355-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 69355-2020.docx", "A 69355-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 69355-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 69355-2020.docx", "A 69355-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 69355-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 69355-2020.docx", "A 69355-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 69355-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 69355-2020.docx", "A 69355-2020")</f>
         <v/>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,27 +1456,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 20402-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 20402-2020.xlsx", "A 20402-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 20402-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 20402-2020.png", "A 20402-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 20402-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 20402-2020.docx", "A 20402-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 20402-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 20402-2020.docx", "A 20402-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 20402-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 20402-2020.docx", "A 20402-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 20402-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 20402-2020.docx", "A 20402-2020")</f>
         <v/>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,27 +1543,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 20124-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 20124-2022.xlsx", "A 20124-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 20124-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 20124-2022.png", "A 20124-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 20124-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 20124-2022.docx", "A 20124-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 20124-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 20124-2022.docx", "A 20124-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 20124-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 20124-2022.docx", "A 20124-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 20124-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 20124-2022.docx", "A 20124-2022")</f>
         <v/>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,27 +1629,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 37714-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 37714-2019.xlsx", "A 37714-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 37714-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 37714-2019.png", "A 37714-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 37714-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 37714-2019.docx", "A 37714-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 37714-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 37714-2019.docx", "A 37714-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 37714-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 37714-2019.docx", "A 37714-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 37714-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 37714-2019.docx", "A 37714-2019")</f>
         <v/>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1715,31 +1715,31 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 32298-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 32298-2022.xlsx", "A 32298-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 32298-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 32298-2022.png", "A 32298-2022")</f>
         <v/>
       </c>
       <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/knärot/A 32298-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/knärot/A 32298-2022.png", "A 32298-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 32298-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 32298-2022.docx", "A 32298-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 32298-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 32298-2022.docx", "A 32298-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 32298-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 32298-2022.docx", "A 32298-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 32298-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 32298-2022.docx", "A 32298-2022")</f>
         <v/>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,27 +1804,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 36567-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 36567-2018.xlsx", "A 36567-2018")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 36567-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 36567-2018.png", "A 36567-2018")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 36567-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 36567-2018.docx", "A 36567-2018")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 36567-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 36567-2018.docx", "A 36567-2018")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 36567-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 36567-2018.docx", "A 36567-2018")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 36567-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 36567-2018.docx", "A 36567-2018")</f>
         <v/>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,27 +1889,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 45577-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 45577-2019.xlsx", "A 45577-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 45577-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 45577-2019.png", "A 45577-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 45577-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 45577-2019.docx", "A 45577-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 45577-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 45577-2019.docx", "A 45577-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 45577-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 45577-2019.docx", "A 45577-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 45577-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 45577-2019.docx", "A 45577-2019")</f>
         <v/>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,27 +1979,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 51437-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 51437-2019.xlsx", "A 51437-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 51437-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 51437-2019.png", "A 51437-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 51437-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 51437-2019.docx", "A 51437-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 51437-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 51437-2019.docx", "A 51437-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 51437-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 51437-2019.docx", "A 51437-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 51437-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 51437-2019.docx", "A 51437-2019")</f>
         <v/>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,27 +2064,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 13747-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 13747-2020.xlsx", "A 13747-2020")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 13747-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 13747-2020.png", "A 13747-2020")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 13747-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 13747-2020.docx", "A 13747-2020")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 13747-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 13747-2020.docx", "A 13747-2020")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 13747-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 13747-2020.docx", "A 13747-2020")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 13747-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 13747-2020.docx", "A 13747-2020")</f>
         <v/>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2149,27 +2149,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 51080-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 51080-2020.xlsx", "A 51080-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 51080-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 51080-2020.png", "A 51080-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 51080-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 51080-2020.docx", "A 51080-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 51080-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 51080-2020.docx", "A 51080-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 51080-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 51080-2020.docx", "A 51080-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 51080-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 51080-2020.docx", "A 51080-2020")</f>
         <v/>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2234,27 +2234,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 52828-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 52828-2020.xlsx", "A 52828-2020")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 52828-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 52828-2020.png", "A 52828-2020")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 52828-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 52828-2020.docx", "A 52828-2020")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 52828-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 52828-2020.docx", "A 52828-2020")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 52828-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 52828-2020.docx", "A 52828-2020")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 52828-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 52828-2020.docx", "A 52828-2020")</f>
         <v/>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2319,27 +2319,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 11150-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 11150-2021.xlsx", "A 11150-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 11150-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 11150-2021.png", "A 11150-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 11150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 11150-2021.docx", "A 11150-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 11150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 11150-2021.docx", "A 11150-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 11150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 11150-2021.docx", "A 11150-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 11150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 11150-2021.docx", "A 11150-2021")</f>
         <v/>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,27 +2404,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 16826-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 16826-2021.xlsx", "A 16826-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 16826-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 16826-2021.png", "A 16826-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 16826-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 16826-2021.docx", "A 16826-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 16826-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 16826-2021.docx", "A 16826-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 16826-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 16826-2021.docx", "A 16826-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 16826-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 16826-2021.docx", "A 16826-2021")</f>
         <v/>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2489,27 +2489,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 2012-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 2012-2022.xlsx", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 2012-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 2012-2022.png", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 2012-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 2012-2022.docx", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 2012-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 2012-2022.docx", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 2012-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 2012-2022.docx", "A 2012-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 2012-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 2012-2022.docx", "A 2012-2022")</f>
         <v/>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2574,27 +2574,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 32252-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 32252-2022.xlsx", "A 32252-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 32252-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 32252-2022.png", "A 32252-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 32252-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 32252-2022.docx", "A 32252-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 32252-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 32252-2022.docx", "A 32252-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 32252-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 32252-2022.docx", "A 32252-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 32252-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 32252-2022.docx", "A 32252-2022")</f>
         <v/>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2659,27 +2659,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 33825-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 33825-2022.xlsx", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 33825-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 33825-2022.png", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 33825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 33825-2022.docx", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 33825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 33825-2022.docx", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 33825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 33825-2022.docx", "A 33825-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 33825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 33825-2022.docx", "A 33825-2022")</f>
         <v/>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2744,27 +2744,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 42227-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 42227-2022.xlsx", "A 42227-2022")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 42227-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 42227-2022.png", "A 42227-2022")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 42227-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 42227-2022.docx", "A 42227-2022")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 42227-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 42227-2022.docx", "A 42227-2022")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 42227-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 42227-2022.docx", "A 42227-2022")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 42227-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 42227-2022.docx", "A 42227-2022")</f>
         <v/>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2829,27 +2829,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 44782-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 44782-2022.xlsx", "A 44782-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 44782-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 44782-2022.png", "A 44782-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 44782-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 44782-2022.docx", "A 44782-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 44782-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 44782-2022.docx", "A 44782-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 44782-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 44782-2022.docx", "A 44782-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 44782-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 44782-2022.docx", "A 44782-2022")</f>
         <v/>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2914,27 +2914,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 45656-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 45656-2022.xlsx", "A 45656-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 45656-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 45656-2022.png", "A 45656-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 45656-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 45656-2022.docx", "A 45656-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 45656-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 45656-2022.docx", "A 45656-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 45656-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 45656-2022.docx", "A 45656-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 45656-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 45656-2022.docx", "A 45656-2022")</f>
         <v/>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2999,27 +2999,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 49442-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 49442-2022.xlsx", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 49442-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 49442-2022.png", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 49442-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 49442-2022.docx", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 49442-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 49442-2022.docx", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 49442-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 49442-2022.docx", "A 49442-2022")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 49442-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 49442-2022.docx", "A 49442-2022")</f>
         <v/>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3084,27 +3084,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 49460-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 49460-2022.xlsx", "A 49460-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 49460-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 49460-2022.png", "A 49460-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 49460-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 49460-2022.docx", "A 49460-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 49460-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 49460-2022.docx", "A 49460-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 49460-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 49460-2022.docx", "A 49460-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 49460-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 49460-2022.docx", "A 49460-2022")</f>
         <v/>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3169,27 +3169,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 56791-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 56791-2022.xlsx", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 56791-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 56791-2022.png", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 56791-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 56791-2022.docx", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 56791-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 56791-2022.docx", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 56791-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 56791-2022.docx", "A 56791-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 56791-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 56791-2022.docx", "A 56791-2022")</f>
         <v/>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3259,27 +3259,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 61986-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 61986-2022.xlsx", "A 61986-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 61986-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 61986-2022.png", "A 61986-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 61986-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 61986-2022.docx", "A 61986-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 61986-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 61986-2022.docx", "A 61986-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 61986-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 61986-2022.docx", "A 61986-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 61986-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 61986-2022.docx", "A 61986-2022")</f>
         <v/>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3349,27 +3349,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 62007-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 62007-2022.xlsx", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 62007-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 62007-2022.png", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 62007-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 62007-2022.docx", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 62007-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 62007-2022.docx", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 62007-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 62007-2022.docx", "A 62007-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 62007-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 62007-2022.docx", "A 62007-2022")</f>
         <v/>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3434,27 +3434,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 7661-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 7661-2023.xlsx", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 7661-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 7661-2023.png", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 7661-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 7661-2023.docx", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 7661-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 7661-2023.docx", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 7661-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 7661-2023.docx", "A 7661-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 7661-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 7661-2023.docx", "A 7661-2023")</f>
         <v/>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
         <v>44972</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3519,27 +3519,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 7681-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 7681-2023.xlsx", "A 7681-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 7681-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 7681-2023.png", "A 7681-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 7681-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 7681-2023.docx", "A 7681-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 7681-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 7681-2023.docx", "A 7681-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 7681-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 7681-2023.docx", "A 7681-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 7681-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 7681-2023.docx", "A 7681-2023")</f>
         <v/>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,27 +3604,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 8019-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 8019-2023.xlsx", "A 8019-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 8019-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 8019-2023.png", "A 8019-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 8019-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 8019-2023.docx", "A 8019-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 8019-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 8019-2023.docx", "A 8019-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 8019-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 8019-2023.docx", "A 8019-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 8019-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 8019-2023.docx", "A 8019-2023")</f>
         <v/>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3689,27 +3689,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 7741-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 7741-2023.xlsx", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 7741-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 7741-2023.png", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 7741-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 7741-2023.docx", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 7741-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 7741-2023.docx", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 7741-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 7741-2023.docx", "A 7741-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 7741-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 7741-2023.docx", "A 7741-2023")</f>
         <v/>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
         <v>44973</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3774,27 +3774,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 7739-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 7739-2023.xlsx", "A 7739-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 7739-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 7739-2023.png", "A 7739-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 7739-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 7739-2023.docx", "A 7739-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 7739-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 7739-2023.docx", "A 7739-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 7739-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 7739-2023.docx", "A 7739-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 7739-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 7739-2023.docx", "A 7739-2023")</f>
         <v/>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
         <v>44980</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3859,27 +3859,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 9303-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 9303-2023.xlsx", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 9303-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 9303-2023.png", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 9303-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 9303-2023.docx", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 9303-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 9303-2023.docx", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 9303-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 9303-2023.docx", "A 9303-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 9303-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 9303-2023.docx", "A 9303-2023")</f>
         <v/>
       </c>
     </row>
@@ -3893,7 +3893,7 @@
         <v>44995</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3944,27 +3944,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 12174-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 12174-2023.xlsx", "A 12174-2023")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 12174-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 12174-2023.png", "A 12174-2023")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 12174-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 12174-2023.docx", "A 12174-2023")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 12174-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 12174-2023.docx", "A 12174-2023")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 12174-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 12174-2023.docx", "A 12174-2023")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 12174-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 12174-2023.docx", "A 12174-2023")</f>
         <v/>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4029,27 +4029,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 33639-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 33639-2023.xlsx", "A 33639-2023")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 33639-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 33639-2023.png", "A 33639-2023")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 33639-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 33639-2023.docx", "A 33639-2023")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 33639-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 33639-2023.docx", "A 33639-2023")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 33639-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 33639-2023.docx", "A 33639-2023")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 33639-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 33639-2023.docx", "A 33639-2023")</f>
         <v/>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
         <v>45169</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4119,27 +4119,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 40267-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 40267-2023.xlsx", "A 40267-2023")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 40267-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 40267-2023.png", "A 40267-2023")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 40267-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 40267-2023.docx", "A 40267-2023")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 40267-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 40267-2023.docx", "A 40267-2023")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 40267-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 40267-2023.docx", "A 40267-2023")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 40267-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 40267-2023.docx", "A 40267-2023")</f>
         <v/>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
         <v>45181</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4209,27 +4209,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 42552-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/artfynd/A 42552-2023.xlsx", "A 42552-2023")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 42552-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/kartor/A 42552-2023.png", "A 42552-2023")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 42552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomål/A 42552-2023.docx", "A 42552-2023")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 42552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/klagomålsmail/A 42552-2023.docx", "A 42552-2023")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 42552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsyn/A 42552-2023.docx", "A 42552-2023")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 42552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNESTA/tillsynsmail/A 42552-2023.docx", "A 42552-2023")</f>
         <v/>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43385</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43405</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43406</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43438</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43472</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43472</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43493</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43521</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43539</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43539</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43559</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43563</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43564</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43566</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43572</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43581</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43584</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43584</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43605</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43661</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43679</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43682</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43689</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43692</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43697</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43711</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43720</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43724</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43724</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43728</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43728</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43734</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43752</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43752</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43768</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43775</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43784</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43790</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43842</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43879</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43896</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43896</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43896</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43910</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43919</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43927</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43945</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43977</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43985</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43997</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>44006</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44032</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44035</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44060</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44061</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44085</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44085</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44091</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44092</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44095</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44096</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44096</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44109</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44109</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44119</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44136</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44139</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44147</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44159</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44160</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44176</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44182</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44187</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44207</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44235</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44239</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44239</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44245</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44245</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44246</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44246</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44246</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44251</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44261</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44265</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44280</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44280</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44285</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44285</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44287</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44287</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44292</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44307</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44312</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>44322</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44322</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>44322</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>44328</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44342</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44391</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44397</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44414</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44414</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44419</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44423</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44423</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44425</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44425</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44426</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44431</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44431</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44442</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44442</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44447</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44452</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44455</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44461</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>44467</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>44475</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44480</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>44481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44484</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44484</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44485</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44491</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44491</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44497</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44524</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44529</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44529</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44532</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44537</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44539</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44543</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44546</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44551</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44551</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44573</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44578</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44579</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44579</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44584</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44587</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44587</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44589</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44589</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>44589</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44594</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>44594</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44595</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>44599</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44599</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44603</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44606</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44635</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>44657</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>44659</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>44713</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>44742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44742</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>44755</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44763</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44773</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44776</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44776</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44781</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44781</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44781</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44795</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>44803</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>44803</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>44819</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>44820</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44830</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>44830</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>44830</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>44831</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44831</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>44831</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>44833</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44833</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44841</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44865</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44873</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44893</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44901</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44909</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44918</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44918</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44918</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44922</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44927</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44930</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44945</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44945</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44945</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44946</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44956</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44964</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44970</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44972</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44972</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44973</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44980</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45000</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>45002</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>45034</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45036</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45042</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>45043</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45044</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45048</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45062</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>45068</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45077</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45099</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>45103</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45104</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45133</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45140</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45152</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45163</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45182</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>45182</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44972</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44973</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44980</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44995</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>45169</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45181</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43385</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43405</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43406</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43438</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43472</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43472</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43493</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43521</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43539</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43539</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43559</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43563</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43564</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43566</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43572</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43581</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43584</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43584</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43605</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43661</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43679</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43682</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43689</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43692</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43697</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43711</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43720</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43724</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43724</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43728</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43728</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43734</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43752</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43752</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43768</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43775</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43784</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43790</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43842</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43879</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43896</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43896</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43896</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43910</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43919</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43927</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43945</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43977</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43985</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43997</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>44006</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44032</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44035</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44060</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44061</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44085</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44085</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44091</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44092</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44095</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44096</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44096</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44109</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44109</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44119</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44136</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44139</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44147</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44159</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44160</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44176</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44182</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44187</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44207</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44235</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44239</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44239</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44245</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44245</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44246</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44246</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44246</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44251</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44261</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44265</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44280</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44280</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44285</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44285</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44287</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44287</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44292</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44307</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44312</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>44322</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44322</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>44322</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>44328</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44342</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44391</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44397</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44414</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44414</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44419</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44423</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44423</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44425</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44425</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44426</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44431</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44431</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44442</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44442</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44447</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44452</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44455</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44461</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>44467</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>44475</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44480</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>44481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44484</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44484</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44485</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44491</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44491</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44497</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44524</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44529</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44529</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44532</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44537</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44539</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44543</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44546</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44551</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44551</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44573</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44578</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44579</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44579</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44584</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44587</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44587</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44589</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44589</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>44589</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44594</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>44594</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44595</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>44599</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44599</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44603</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44606</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44635</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>44657</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>44659</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>44713</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>44742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44742</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>44755</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44763</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44773</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44776</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44776</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44781</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44781</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44781</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44795</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>44803</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>44803</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>44819</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>44820</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44830</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>44830</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>44830</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>44831</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44831</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>44831</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>44833</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44833</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44841</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44865</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44873</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44893</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44901</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44909</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44918</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44918</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44918</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44922</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44927</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44930</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44945</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44945</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44945</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44946</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44956</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44964</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44970</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44972</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44972</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44973</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44980</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45000</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>45002</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>45034</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45036</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45042</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>45043</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45044</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45048</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45062</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>45068</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45077</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45099</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>45103</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45104</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45133</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45140</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45152</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45163</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45182</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>45182</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44972</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44973</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44980</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44995</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>45169</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45181</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43385</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43405</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43406</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43438</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43472</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43472</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43493</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43521</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43539</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43539</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43559</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43563</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43564</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43566</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43572</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43581</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43584</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43584</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43605</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43661</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43679</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43682</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43689</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43692</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43697</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43711</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43720</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43724</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43724</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43728</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43728</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43734</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43752</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43752</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43768</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43775</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43784</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43790</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43842</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43879</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43896</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43896</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43896</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43910</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43919</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43927</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43945</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43977</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43985</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43997</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>44006</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44032</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44035</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44060</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44061</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44085</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44085</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44091</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44092</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44095</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44096</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44096</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44109</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44109</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44119</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44136</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44139</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44147</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44159</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44160</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44176</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44182</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44187</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44207</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44235</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44239</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44239</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44245</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44245</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44246</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44246</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44246</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44251</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44261</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44265</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44280</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44280</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44285</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44285</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44287</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44287</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44292</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44307</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44312</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>44322</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44322</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>44322</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>44328</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44342</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44391</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44397</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44414</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44414</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44419</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44423</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44423</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44425</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44425</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44426</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44431</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44431</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44442</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44442</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44447</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44452</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44455</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44461</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>44467</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>44475</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44480</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>44481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44484</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44484</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44485</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44491</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44491</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44497</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44524</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44529</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44529</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44532</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44537</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44539</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44543</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44546</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44551</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44551</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44573</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44578</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44579</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44579</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44584</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44587</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44587</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44589</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44589</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>44589</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44594</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>44594</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44595</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>44599</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44599</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44603</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44606</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44635</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>44657</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>44659</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>44713</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>44742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44742</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>44755</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44763</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44773</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44776</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44776</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44781</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44781</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44781</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44795</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>44803</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>44803</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>44819</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>44820</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44830</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>44830</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>44830</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>44831</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44831</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>44831</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>44833</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44833</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44841</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44865</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44873</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44893</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44901</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44909</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44918</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44918</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44918</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44922</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44927</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44930</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44945</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44945</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44945</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44946</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44956</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44964</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44970</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44972</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44972</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44973</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44980</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45000</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>45002</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>45034</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45036</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45042</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>45043</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45044</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45048</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45062</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>45068</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45077</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45099</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>45103</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45104</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45133</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45140</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45152</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45163</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45182</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>45182</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y379"/>
+  <dimension ref="A1:Y380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44972</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44973</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44980</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44995</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>45169</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45181</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43385</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43405</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43406</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43438</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43472</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43472</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43493</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43521</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43539</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43539</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43559</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43563</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43564</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43566</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43572</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43581</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43584</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43584</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43605</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43661</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43679</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43682</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43689</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43692</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43697</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43711</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43720</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43724</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43724</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43728</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43728</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43734</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43752</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43752</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43768</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43775</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43784</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43790</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43842</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43879</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43896</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43896</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43896</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43910</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43919</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43927</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43945</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43977</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43985</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43997</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>44006</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44032</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44035</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44060</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44061</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44085</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44085</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44091</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44092</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44095</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44096</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44096</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44109</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44109</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44119</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44136</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44139</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44147</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44159</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44160</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44176</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44182</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44187</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44207</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44235</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44239</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44239</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44245</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44245</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44246</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44246</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44246</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44251</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44261</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44265</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44280</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44280</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44285</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44285</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44287</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44287</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44292</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44307</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44312</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>44322</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44322</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>44322</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>44328</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44342</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44391</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44397</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44414</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44414</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44419</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44423</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44423</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44425</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44425</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44426</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44431</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44431</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44442</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44442</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44447</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44452</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44455</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44461</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>44467</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>44475</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44480</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>44481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44484</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44484</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44485</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44491</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44491</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44497</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44524</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44529</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44529</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44532</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44537</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44539</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44543</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44546</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44551</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44551</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44573</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44578</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44579</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44579</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44584</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44587</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44587</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44589</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44589</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>44589</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44594</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>44594</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44595</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>44599</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44599</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44603</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44606</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44635</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>44657</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>44659</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>44713</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>44742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44742</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>44755</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44763</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44773</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44776</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44776</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44781</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44781</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44781</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44795</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>44803</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>44803</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>44819</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>44820</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44830</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>44830</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>44830</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>44831</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44831</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>44831</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>44833</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44833</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44841</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44865</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44873</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44893</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44901</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44909</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44918</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44918</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44918</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44922</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44927</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44930</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44945</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44945</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44945</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44946</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44956</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44964</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44970</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44972</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44972</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44973</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44980</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45000</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>45002</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>45034</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45036</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45042</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>45043</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45044</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45048</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45062</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>45068</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45077</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45099</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>45103</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45104</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45133</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45140</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45152</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45163</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45182</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
       </c>
       <c r="R378" s="2" t="inlineStr"/>
     </row>
-    <row r="379">
+    <row r="379" ht="15" customHeight="1">
       <c r="A379" t="inlineStr">
         <is>
           <t>A 43081-2023</t>
@@ -23533,7 +23533,7 @@
         <v>45182</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23579,6 +23579,68 @@
         <v>0</v>
       </c>
       <c r="R379" s="2" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>A 44208-2023</t>
+        </is>
+      </c>
+      <c r="B380" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C380" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G380" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N380" t="n">
+        <v>0</v>
+      </c>
+      <c r="O380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R380" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y380"/>
+  <dimension ref="A1:Y381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44972</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44973</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44980</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44995</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>45169</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45181</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43385</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43405</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43406</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43438</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43472</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43472</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43493</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43521</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43539</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43539</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43559</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43563</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43564</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43566</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43572</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43581</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43584</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43584</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43605</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43661</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43679</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43682</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43689</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43692</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43697</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43711</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43720</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43724</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43724</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43728</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43728</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43734</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43752</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43752</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43768</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43775</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43784</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43790</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43842</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43879</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43896</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43896</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43896</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43910</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43919</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43927</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43945</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43977</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43985</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43997</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>44006</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44032</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44035</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44060</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44061</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44085</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44085</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44091</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44092</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44095</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44096</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44096</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44109</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44109</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44119</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44136</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44139</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44147</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44159</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44160</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44176</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44182</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44187</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44207</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44235</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44239</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44239</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44245</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44245</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44246</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44246</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44246</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44251</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44261</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44265</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44280</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44280</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44285</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44285</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44287</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44287</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44292</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44307</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44312</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>44322</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44322</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>44322</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>44328</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44342</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44391</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44397</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44414</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44414</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44419</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44423</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44423</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44425</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44425</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44426</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44431</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44431</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44442</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44442</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44447</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44452</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44455</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44461</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>44467</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>44475</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44480</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>44481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44484</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44484</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44485</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44491</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44491</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44497</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44524</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44529</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44529</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44532</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44537</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44539</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44543</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44546</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44551</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44551</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44573</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44578</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44579</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44579</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44584</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44587</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44587</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44589</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44589</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>44589</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44594</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>44594</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44595</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>44599</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44599</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44603</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44606</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44635</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>44657</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>44659</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>44713</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>44742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44742</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>44755</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44763</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44773</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44776</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44776</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44781</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44781</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44781</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44795</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>44803</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>44803</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>44819</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>44820</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44830</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>44830</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>44830</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>44831</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44831</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>44831</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>44833</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44833</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44841</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44865</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44873</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44893</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44901</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44909</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44918</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44918</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44918</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44922</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44927</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44930</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44945</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44945</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44945</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44946</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44956</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44964</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44970</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44972</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44972</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44973</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44980</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45000</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>45002</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>45034</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45036</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45042</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>45043</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45044</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45048</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45062</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>45068</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45077</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45099</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>45103</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45104</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45133</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45140</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45152</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45163</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45182</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>45182</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
       </c>
       <c r="R379" s="2" t="inlineStr"/>
     </row>
-    <row r="380">
+    <row r="380" ht="15" customHeight="1">
       <c r="A380" t="inlineStr">
         <is>
           <t>A 44208-2023</t>
@@ -23590,7 +23590,7 @@
         <v>45188</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23641,6 +23641,63 @@
         <v>0</v>
       </c>
       <c r="R380" s="2" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>A 44627-2023</t>
+        </is>
+      </c>
+      <c r="B381" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C381" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="G381" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N381" t="n">
+        <v>0</v>
+      </c>
+      <c r="O381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R381" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y381"/>
+  <dimension ref="A1:Y382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44972</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44973</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44980</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44995</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>45169</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45181</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43385</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43405</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43406</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43438</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43472</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43472</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43493</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43521</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43539</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43539</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43559</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43563</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43564</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43566</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43572</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43581</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43584</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43584</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43605</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43661</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43679</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43682</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43689</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43692</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43697</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43711</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43720</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43724</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43724</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43728</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43728</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43734</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43752</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43752</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43768</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43775</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43784</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43790</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43842</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43879</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43896</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43896</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43896</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43910</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43919</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43927</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43945</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43977</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43985</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43997</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>44006</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44032</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44035</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44060</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44061</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44085</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44085</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44091</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44092</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44095</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44096</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44096</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44109</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44109</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44119</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44136</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44139</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44147</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44159</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44160</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44176</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44182</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44187</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44207</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44235</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44239</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44239</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44245</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44245</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44246</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44246</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44246</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44251</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44261</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44265</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44280</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44280</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44285</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44285</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44287</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44287</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44292</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44307</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44312</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>44322</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44322</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>44322</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>44328</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44342</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44391</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44397</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44414</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44414</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44419</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44423</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44423</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44425</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44425</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44426</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44431</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44431</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44442</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44442</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44447</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44452</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44455</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44461</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>44467</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>44475</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44480</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>44481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44484</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44484</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44485</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44491</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44491</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44497</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44524</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44529</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44529</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44532</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44537</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44539</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44543</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44546</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44551</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44551</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44573</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44578</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44579</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44579</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44584</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44587</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44587</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44589</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44589</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>44589</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44594</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>44594</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44595</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>44599</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44599</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44603</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44606</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44635</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>44657</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>44659</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>44713</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>44742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44742</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>44755</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44763</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44773</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44776</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44776</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44781</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44781</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44781</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44795</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>44803</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>44803</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>44819</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>44820</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44830</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>44830</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>44830</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>44831</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44831</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>44831</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>44833</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44833</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44841</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44865</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44873</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44893</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44901</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44909</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44918</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44918</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44918</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44922</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44927</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44930</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44945</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44945</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44945</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44946</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44956</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44964</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44970</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44972</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44972</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44973</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44980</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45000</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>45002</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>45034</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45036</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45042</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>45043</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45044</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45048</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45062</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>45068</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45077</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45099</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>45103</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45104</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45133</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45140</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45152</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45163</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45182</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>45182</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>45188</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
       </c>
       <c r="R380" s="2" t="inlineStr"/>
     </row>
-    <row r="381">
+    <row r="381" ht="15" customHeight="1">
       <c r="A381" t="inlineStr">
         <is>
           <t>A 44627-2023</t>
@@ -23652,7 +23652,7 @@
         <v>45189</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23698,6 +23698,63 @@
         <v>0</v>
       </c>
       <c r="R381" s="2" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>A 45766-2023</t>
+        </is>
+      </c>
+      <c r="B382" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C382" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>GNESTA</t>
+        </is>
+      </c>
+      <c r="G382" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N382" t="n">
+        <v>0</v>
+      </c>
+      <c r="O382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R382" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44972</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44973</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44980</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44995</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>45169</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45181</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43385</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43405</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43406</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43438</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43472</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43472</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43493</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43521</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43539</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43539</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43559</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43563</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43564</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43566</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43572</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43581</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43584</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43584</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43605</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43661</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43679</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43682</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43689</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43692</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43697</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43711</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43720</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43724</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43724</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43728</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43728</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43734</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43752</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43752</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43768</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43775</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43784</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43790</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43842</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43879</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43896</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43896</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43896</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43910</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43919</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43927</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43945</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43977</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43985</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43997</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>44006</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44032</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44035</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44060</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44061</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44085</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44085</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44091</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44092</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44095</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44096</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44096</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44109</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44109</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44119</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44136</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44139</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44147</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44159</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44160</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44176</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44182</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44187</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44207</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44235</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44239</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44239</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44245</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44245</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44246</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44246</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44246</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44251</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44261</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44265</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44280</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44280</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44285</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44285</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44287</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44287</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44292</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44307</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44312</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>44322</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44322</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>44322</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>44328</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44342</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44391</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44397</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44414</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44414</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44419</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44423</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44423</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44425</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44425</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44426</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44431</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44431</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44442</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44442</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44447</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44452</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44455</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44461</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>44467</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>44475</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44480</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>44481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44484</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44484</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44485</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44491</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44491</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44497</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44524</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44529</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44529</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44532</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44537</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44539</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44543</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44546</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44551</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44551</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44573</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44578</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44579</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44579</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44584</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44587</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44587</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44589</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44589</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>44589</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44594</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>44594</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44595</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>44599</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44599</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44603</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44606</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44635</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>44657</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>44659</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>44713</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>44742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44742</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>44755</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44763</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44773</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44776</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44776</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44781</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44781</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44781</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44795</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>44803</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>44803</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>44819</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>44820</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44830</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>44830</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>44830</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>44831</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44831</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>44831</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>44833</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44833</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44841</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44865</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44873</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44893</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44901</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44909</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44918</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44918</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44918</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44922</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44927</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44930</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44945</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44945</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44945</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44946</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44956</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44964</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44970</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44972</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44972</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44973</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44980</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45000</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>45002</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>45034</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45036</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45042</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>45043</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45044</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45048</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45062</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>45068</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45077</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45099</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>45103</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45104</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45133</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45140</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45152</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45163</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45182</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>45182</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>45188</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45189</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45195</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44972</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44973</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44980</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44995</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>45169</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45181</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43385</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43405</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43406</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43438</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43472</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43472</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43493</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43521</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43539</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43539</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43559</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43563</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43564</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43566</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43572</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43581</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43584</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43584</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43605</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43661</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43679</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43682</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43689</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43692</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43697</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43711</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43720</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43724</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43724</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43728</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43728</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43734</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43752</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43752</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43768</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43775</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43784</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43790</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43842</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43879</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43896</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43896</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43896</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43910</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43919</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43927</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43945</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43977</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43985</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43997</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>44006</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44032</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44035</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44060</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44061</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44085</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44085</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44091</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44092</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44095</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44096</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44096</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44109</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44109</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44119</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44136</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44139</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44147</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44159</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44160</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44176</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44182</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44187</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44207</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44235</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44239</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44239</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44245</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44245</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44246</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44246</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44246</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44251</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44261</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44265</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44280</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44280</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44285</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44285</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44287</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44287</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44292</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44307</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44312</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>44322</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44322</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>44322</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>44328</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44342</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44391</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44397</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44414</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44414</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44419</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44423</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44423</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44425</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44425</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44426</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44431</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44431</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44442</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44442</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44447</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44452</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44455</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44461</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>44467</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>44475</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44480</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>44481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44484</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44484</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44485</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44491</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44491</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44497</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44524</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44529</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44529</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44532</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44537</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44539</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44543</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44546</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44551</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44551</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44573</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44578</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44579</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44579</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44584</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44587</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44587</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44589</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44589</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>44589</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44594</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>44594</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44595</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>44599</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44599</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44603</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44606</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44635</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>44657</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>44659</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>44713</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>44742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44742</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>44755</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44763</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44773</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44776</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44776</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44781</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44781</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44781</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44795</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>44803</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>44803</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>44819</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>44820</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44830</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>44830</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>44830</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>44831</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44831</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>44831</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>44833</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44833</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44841</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44865</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44873</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44893</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44901</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44909</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44918</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44918</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44918</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44922</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44927</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44930</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44945</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44945</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44945</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44946</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44956</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44964</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44970</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44972</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44972</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44973</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44980</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45000</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>45002</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>45034</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45036</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45042</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>45043</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45044</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45048</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45062</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>45068</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45077</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45099</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>45103</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45104</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45133</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45140</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45152</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45163</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45182</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>45182</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>45188</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45189</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45195</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44972</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44973</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44980</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44995</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>45169</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45181</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43385</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43405</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43406</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43438</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43472</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43472</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43493</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43521</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43539</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43539</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43559</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43563</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43564</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43566</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43572</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43581</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43584</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43584</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43605</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43661</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43679</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43682</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43689</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43692</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43697</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43711</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43720</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43724</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43724</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43728</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43728</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43734</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43752</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43752</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43768</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43775</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43784</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43790</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43842</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43879</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43896</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43896</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43896</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43910</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43919</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43927</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43945</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43977</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43985</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43997</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>44006</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44032</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44035</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44060</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44061</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44085</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44085</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44091</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44092</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44095</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44096</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44096</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44109</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44109</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44119</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44136</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44139</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44147</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44159</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44160</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44176</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44182</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44187</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44207</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44235</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44239</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44239</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44245</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44245</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44246</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44246</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44246</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44251</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44261</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44265</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44280</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44280</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44285</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44285</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44287</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44287</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44292</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44307</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44312</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>44322</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44322</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>44322</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>44328</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44342</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44391</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44397</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44414</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44414</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44419</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44423</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44423</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44425</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44425</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44426</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44431</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44431</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44442</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44442</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44447</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44452</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44455</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44461</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>44467</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>44475</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44480</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>44481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44484</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44484</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44485</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44491</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44491</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44497</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44524</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44529</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44529</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44532</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44537</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44539</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44543</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44546</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44551</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44551</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44573</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44578</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44579</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44579</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44584</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44587</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44587</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44589</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44589</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>44589</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44594</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>44594</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44595</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>44599</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44599</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44603</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44606</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44635</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>44657</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>44659</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>44713</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>44742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44742</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>44755</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44763</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44773</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44776</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44776</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44781</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44781</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44781</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44795</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>44803</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>44803</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>44819</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>44820</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44830</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>44830</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>44830</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>44831</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44831</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>44831</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>44833</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44833</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44841</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44865</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44873</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44893</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44901</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44909</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44918</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44918</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44918</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44922</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44927</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44930</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44945</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44945</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44945</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44946</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44956</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44964</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44970</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44972</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44972</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44973</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44980</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45000</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>45002</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>45034</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45036</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45042</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>45043</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45044</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45048</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45062</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>45068</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45077</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45099</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>45103</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45104</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45133</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45140</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45152</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45163</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45182</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>45182</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>45188</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45189</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45195</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>

--- a/Översikt GNESTA.xlsx
+++ b/Översikt GNESTA.xlsx
@@ -572,7 +572,7 @@
         <v>44659</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43910</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44467</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44528</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43551</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>43948</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43399</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>43945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44698</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44781</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43329</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43716</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43740</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43896</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44261</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44295</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44790</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44830</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>44861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44861</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44918</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44972</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44973</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44973</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44973</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44980</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44995</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>45169</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45181</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43336</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43385</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43405</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43406</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43438</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43472</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43472</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43493</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>43521</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43539</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43539</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43559</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43563</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43564</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43566</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43572</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43581</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43584</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43584</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43605</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43661</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43679</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43682</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43689</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43692</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43697</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43711</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43720</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43724</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43724</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43728</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43728</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43734</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43752</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43752</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43768</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43775</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43784</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43790</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43842</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43879</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43896</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43896</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43896</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43896</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43910</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43919</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43927</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43945</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43977</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43985</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43997</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44005</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>44006</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44032</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44035</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44060</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44061</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>44084</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44085</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44085</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44091</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44092</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44095</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44096</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44096</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44109</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44109</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44119</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44136</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44139</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44147</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44159</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44160</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44176</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44182</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44187</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44200</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44207</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44235</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44239</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44239</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44245</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44245</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44246</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44246</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44246</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44251</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44261</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44265</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44280</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44280</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44285</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44285</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44287</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44287</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44292</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44307</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44312</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>44322</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>44322</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44322</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>44322</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>44328</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44342</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44391</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44397</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44412</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44414</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44414</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44419</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44423</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44423</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44425</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44425</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44426</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44426</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44431</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44431</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44438</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44442</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44442</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44447</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44452</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44455</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44461</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>44467</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>44475</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44480</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>44481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44484</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44484</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44485</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44491</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44491</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44497</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44524</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44529</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44529</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44532</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44537</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44539</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44543</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44546</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44551</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44551</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44571</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44573</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44578</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44579</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44579</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44581</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44584</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44587</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44587</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44589</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44589</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44589</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>44589</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44594</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>44594</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44595</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>44599</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44599</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44603</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44606</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44635</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>44650</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>44657</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>44659</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>44678</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>44701</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>44713</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>44742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44742</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>44755</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44763</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44773</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44776</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44776</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44781</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44781</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44781</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44795</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>44803</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>44803</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>44819</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>44820</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44830</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>44830</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>44830</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>44831</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44831</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>44831</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>44833</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44833</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44833</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44841</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44853</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44853</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44865</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44873</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44893</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44901</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44909</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44915</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44918</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44918</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44918</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44922</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44927</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44930</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44945</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44945</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44945</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44945</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44946</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44956</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44964</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44970</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44972</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44972</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44972</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44973</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44973</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44973</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44973</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44973</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44980</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44980</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44994</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44994</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45000</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>45002</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45034</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>45034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>45034</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45036</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45042</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>45043</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45044</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45044</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45044</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45048</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45048</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45062</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45062</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>45068</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45077</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45099</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>45103</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45104</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45104</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45104</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45133</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45133</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45133</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45133</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45139</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45139</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45139</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45140</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45140</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45152</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45152</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45163</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45169</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45182</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45182</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>45182</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>45188</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45189</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45195</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
